--- a/good_output_hour_saleonly.xlsx
+++ b/good_output_hour_saleonly.xlsx
@@ -1956,7 +1956,7 @@
         <v>1.173</v>
       </c>
       <c r="CK2" t="n">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="CL2" t="n">
         <v>17</v>
